--- a/biology/Biochimie/Agoniste_partiel/Agoniste_partiel.xlsx
+++ b/biology/Biochimie/Agoniste_partiel/Agoniste_partiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agonistes partiels (tels que la buspirone, l'aripiprazole ou la clozapine) se lient et activent un récepteur donné, mais ont seulement un effet modéré sur le récepteur par rapport à l'action d'un agoniste complet.
 Cliniquement, les agonistes partiels peuvent activer des récepteurs pour obtenir une réponse augmentée du récepteur si une dose de ligand endogènes présent est insuffisante, et de même ils peuvent réduire une stimulation excessive des récepteurs où une quantité de ligands endogènes est présente en excès.
